--- a/files/btr.amr.112015.xlsx
+++ b/files/btr.amr.112015.xlsx
@@ -5,18 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECS\Documents\GitHub\3mm.3atur\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10230" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$29</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="117">
   <si>
     <t>UNITUP</t>
   </si>
@@ -65,33 +62,33 @@
     <t>55200</t>
   </si>
   <si>
+    <t>552001023019</t>
+  </si>
+  <si>
+    <t>LUH PUTRI DEWI SINTHAJANY</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>JL BISMA NO 0 UBUD KLOD</t>
+  </si>
+  <si>
     <t>551200750455</t>
   </si>
   <si>
     <t>MUSTIKA SARI I MADE</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>JL RAYA BATUBULAN NO 0 TEGEHA</t>
   </si>
   <si>
-    <t>552001023019</t>
-  </si>
-  <si>
-    <t>LUH PUTRI DEWI SINTHAJANY</t>
-  </si>
-  <si>
-    <t>JL BISMA NO 0 UBUD KLOD</t>
-  </si>
-  <si>
     <t>552001180404</t>
   </si>
   <si>
@@ -137,6 +134,15 @@
     <t>DN PASEKAN NO 0 BATUBULAN</t>
   </si>
   <si>
+    <t>552001209202</t>
+  </si>
+  <si>
+    <t>GUSTI GEDE WIDYA</t>
+  </si>
+  <si>
+    <t>JL RY CELUK GG CELUK SESEH NO   SINGAPADU</t>
+  </si>
+  <si>
     <t>552001099369</t>
   </si>
   <si>
@@ -146,15 +152,6 @@
     <t>DN SAYAN UBUD DS BAUNG JAMBANGAN NO 0 UBUD</t>
   </si>
   <si>
-    <t>552001209202</t>
-  </si>
-  <si>
-    <t>GUSTI GEDE WIDYA</t>
-  </si>
-  <si>
-    <t>JL RY CELUK GG CELUK SESEH NO   SINGAPADU</t>
-  </si>
-  <si>
     <t>551200776655</t>
   </si>
   <si>
@@ -167,15 +164,6 @@
     <t>BR MAJANGAN NO  BUAHAN</t>
   </si>
   <si>
-    <t>551200488895</t>
-  </si>
-  <si>
-    <t>PONDOK WISATA ALAM.S</t>
-  </si>
-  <si>
-    <t>BR KELIKI NO 0 KELIKI</t>
-  </si>
-  <si>
     <t>552001207480</t>
   </si>
   <si>
@@ -188,6 +176,45 @@
     <t>JL BATU INTAN SELATAN NO 0 BATUBULAN</t>
   </si>
   <si>
+    <t>552001221522</t>
+  </si>
+  <si>
+    <t>ARIF SOELEMAN SIREGAR</t>
+  </si>
+  <si>
+    <t>DN PERANGSADA NO 0 PERING</t>
+  </si>
+  <si>
+    <t>551200245212</t>
+  </si>
+  <si>
+    <t>PANTIASUHAN BALI GLOBAL A</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>BR BATAN ANCAK NO 0 MAS</t>
+  </si>
+  <si>
+    <t>551200766867</t>
+  </si>
+  <si>
+    <t>SILA I WAYAN</t>
+  </si>
+  <si>
+    <t>BR TENGKULAK KJ KAUH NO  KEMENUH</t>
+  </si>
+  <si>
+    <t>551200422601</t>
+  </si>
+  <si>
+    <t>HOTEL ANOM SARI</t>
+  </si>
+  <si>
+    <t>JL LODTUNDUH NO 0 SILUNGAN</t>
+  </si>
+  <si>
     <t>551200679026</t>
   </si>
   <si>
@@ -197,61 +224,31 @@
     <t>JL DS CANGGI NO 0 SAKAH</t>
   </si>
   <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>552001221522</t>
-  </si>
-  <si>
-    <t>ARIF SOELEMAN SIREGAR</t>
-  </si>
-  <si>
-    <t>DN PERANGSADA NO 0 PERING</t>
-  </si>
-  <si>
-    <t>551200422601</t>
-  </si>
-  <si>
-    <t>HOTEL ANOM SARI</t>
-  </si>
-  <si>
-    <t>JL LODTUNDUH NO 0 SILUNGAN</t>
-  </si>
-  <si>
-    <t>552001043743</t>
-  </si>
-  <si>
-    <t>I KETUT ARTANA</t>
-  </si>
-  <si>
-    <t>JL RAYA TATI API KAJA PEJENG GIANYAR NO 0 TATI API</t>
-  </si>
-  <si>
-    <t>551200766867</t>
-  </si>
-  <si>
-    <t>SILA I WAYAN</t>
-  </si>
-  <si>
-    <t>BR TENGKULAK KJ KAUH NO  KEMENUH</t>
-  </si>
-  <si>
-    <t>551200245212</t>
-  </si>
-  <si>
-    <t>PANTIASUHAN BALI GLOBAL A</t>
-  </si>
-  <si>
-    <t>BR BATAN ANCAK NO 0 MAS</t>
-  </si>
-  <si>
-    <t>552001184404</t>
-  </si>
-  <si>
-    <t>I WAYAN SUJANA</t>
-  </si>
-  <si>
-    <t>DN UMAHANYAR PEJENG KAJA NO 0 TAMPAKSIRI</t>
+    <t>551230572182</t>
+  </si>
+  <si>
+    <t>DAVID S.KUNG</t>
+  </si>
+  <si>
+    <t>BR JUKUT PAKU NO 0 SINGAKERTA</t>
+  </si>
+  <si>
+    <t>552000979143</t>
+  </si>
+  <si>
+    <t>WIDODO</t>
+  </si>
+  <si>
+    <t>JL BY PASS I B MANTRA (SI0115/D1C4) NO 0 MANYAR</t>
+  </si>
+  <si>
+    <t>551200462203</t>
+  </si>
+  <si>
+    <t>NI MADE MAWARNI</t>
+  </si>
+  <si>
+    <t>BR KAPAL NO 0 BATU BULAN</t>
   </si>
   <si>
     <t>552001257523</t>
@@ -263,33 +260,6 @@
     <t>JL TEBONGKANG NO   SINGAKERTA</t>
   </si>
   <si>
-    <t>551230572182</t>
-  </si>
-  <si>
-    <t>DAVID S.KUNG</t>
-  </si>
-  <si>
-    <t>BR JUKUT PAKU NO 0 SINGAKERTA</t>
-  </si>
-  <si>
-    <t>551200462203</t>
-  </si>
-  <si>
-    <t>NI MADE MAWARNI</t>
-  </si>
-  <si>
-    <t>BR KAPAL NO 0 BATU BULAN</t>
-  </si>
-  <si>
-    <t>552000979143</t>
-  </si>
-  <si>
-    <t>WIDODO</t>
-  </si>
-  <si>
-    <t>JL BY PASS I B MANTRA (SI0115/D1C4) NO 0 MANYAR</t>
-  </si>
-  <si>
     <t>55230</t>
   </si>
   <si>
@@ -365,15 +335,6 @@
     <t>BR YEH MALET NO 0 YEH MALET</t>
   </si>
   <si>
-    <t>552300609923</t>
-  </si>
-  <si>
-    <t>YULI UTOMO,SH,MH</t>
-  </si>
-  <si>
-    <t>DN DATAH NO 0 DATAH KARA</t>
-  </si>
-  <si>
     <t>552300565202</t>
   </si>
   <si>
@@ -402,15 +363,6 @@
   </si>
   <si>
     <t>55210</t>
-  </si>
-  <si>
-    <t>552100362165</t>
-  </si>
-  <si>
-    <t>PT INDOBAMBOO LESTARI</t>
-  </si>
-  <si>
-    <t>JL GUNUNG AGUNG KUSAMBA NO 0 KUSAMBA</t>
   </si>
   <si>
     <t>551320015997</t>
@@ -429,11 +381,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,25 +474,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal_Sheet1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -809,30 +780,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="76.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="72.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -861,10 +832,10 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -876,22 +847,22 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3">
         <v>197000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>17</v>
@@ -899,11 +870,11 @@
       <c r="J2" s="3">
         <v>1</v>
       </c>
-      <c r="K2" s="3">
-        <v>12299911</v>
-      </c>
-      <c r="L2" s="3">
-        <v>335288</v>
+      <c r="K2" s="6">
+        <v>16086260</v>
+      </c>
+      <c r="L2" s="6">
+        <v>438553</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -920,16 +891,16 @@
         <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3">
         <v>197000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>20</v>
@@ -937,11 +908,11 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="3">
-        <v>16086260</v>
-      </c>
-      <c r="L3" s="3">
-        <v>438553</v>
+      <c r="K3" s="6">
+        <v>12299911</v>
+      </c>
+      <c r="L3" s="6">
+        <v>335288</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -958,16 +929,16 @@
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3">
         <v>197000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -975,10 +946,10 @@
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="6">
         <v>13069109</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="6">
         <v>356267</v>
       </c>
     </row>
@@ -996,16 +967,16 @@
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3">
         <v>147000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1013,10 +984,10 @@
       <c r="J5" s="3">
         <v>2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>73773552</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="6">
         <v>2986568</v>
       </c>
     </row>
@@ -1034,16 +1005,16 @@
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3">
         <v>105000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
@@ -1051,10 +1022,10 @@
       <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>25402807</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="6">
         <v>692640</v>
       </c>
     </row>
@@ -1072,16 +1043,16 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3">
         <v>105000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>32</v>
@@ -1089,10 +1060,10 @@
       <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>6968571</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="6">
         <v>189888</v>
       </c>
     </row>
@@ -1110,16 +1081,16 @@
         <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="3">
         <v>105000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>35</v>
@@ -1127,10 +1098,10 @@
       <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="6">
         <v>6968571</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="6">
         <v>189888</v>
       </c>
     </row>
@@ -1148,28 +1119,28 @@
         <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="3">
         <v>82500</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J9" s="3">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3">
-        <v>20713400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1048886</v>
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>5476592</v>
+      </c>
+      <c r="L9" s="6">
+        <v>149198</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1186,28 +1157,28 @@
         <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3">
         <v>82500</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>5476592</v>
-      </c>
-      <c r="L10" s="3">
-        <v>149198</v>
+        <v>3</v>
+      </c>
+      <c r="K10" s="6">
+        <v>20713400</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1048886</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1230,10 +1201,10 @@
         <v>66000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>45</v>
@@ -1241,10 +1212,10 @@
       <c r="J11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>9771684</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="6">
         <v>244142</v>
       </c>
     </row>
@@ -1262,28 +1233,28 @@
         <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F12" s="3">
         <v>66000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" s="3">
-        <v>13864832</v>
-      </c>
-      <c r="L12" s="3">
-        <v>377968</v>
+      <c r="K12" s="6">
+        <v>2649062</v>
+      </c>
+      <c r="L12" s="6">
+        <v>100000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1294,34 +1265,34 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F13" s="3">
-        <v>66000</v>
+        <v>53000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
-        <v>2649062</v>
-      </c>
-      <c r="L13" s="3">
-        <v>100000</v>
+        <v>3</v>
+      </c>
+      <c r="K13" s="6">
+        <v>10342993</v>
+      </c>
+      <c r="L13" s="6">
+        <v>600000</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1338,27 +1309,27 @@
         <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F14" s="3">
         <v>53000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="3">
-        <v>2128459</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="6">
+        <v>2916600</v>
+      </c>
+      <c r="L14" s="6">
         <v>100000</v>
       </c>
     </row>
@@ -1376,28 +1347,28 @@
         <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F15" s="3">
         <v>53000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>10342993</v>
-      </c>
-      <c r="L15" s="3">
-        <v>600000</v>
+        <v>1</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2128459</v>
+      </c>
+      <c r="L15" s="6">
+        <v>100000</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1414,16 +1385,16 @@
         <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="3">
         <v>53000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>62</v>
@@ -1431,10 +1402,10 @@
       <c r="J16" s="3">
         <v>1</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="6">
         <v>18771787</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="6">
         <v>511794</v>
       </c>
     </row>
@@ -1452,16 +1423,16 @@
         <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3">
         <v>53000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>65</v>
@@ -1469,11 +1440,11 @@
       <c r="J17" s="3">
         <v>1</v>
       </c>
-      <c r="K17" s="3">
-        <v>3885147</v>
-      </c>
-      <c r="L17" s="3">
-        <v>105795</v>
+      <c r="K17" s="6">
+        <v>2128459</v>
+      </c>
+      <c r="L17" s="6">
+        <v>100000</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1490,16 +1461,16 @@
         <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F18" s="3">
-        <v>53000</v>
+        <v>41500</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>68</v>
@@ -1507,11 +1478,11 @@
       <c r="J18" s="3">
         <v>1</v>
       </c>
-      <c r="K18" s="3">
-        <v>2128459</v>
-      </c>
-      <c r="L18" s="3">
-        <v>100000</v>
+      <c r="K18" s="6">
+        <v>8162155</v>
+      </c>
+      <c r="L18" s="6">
+        <v>222441</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1528,16 +1499,16 @@
         <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F19" s="3">
-        <v>53000</v>
+        <v>41500</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>71</v>
@@ -1545,10 +1516,10 @@
       <c r="J19" s="3">
         <v>1</v>
       </c>
-      <c r="K19" s="3">
-        <v>2916600</v>
-      </c>
-      <c r="L19" s="3">
+      <c r="K19" s="6">
+        <v>3165380</v>
+      </c>
+      <c r="L19" s="6">
         <v>100000</v>
       </c>
     </row>
@@ -1566,28 +1537,28 @@
         <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="3">
         <v>41500</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J20" s="3">
-        <v>2</v>
-      </c>
-      <c r="K20" s="3">
-        <v>5546641</v>
-      </c>
-      <c r="L20" s="3">
-        <v>300000</v>
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>4457072</v>
+      </c>
+      <c r="L20" s="6">
+        <v>121393</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1604,16 +1575,16 @@
         <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="3">
         <v>41500</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>77</v>
@@ -1621,10 +1592,10 @@
       <c r="J21" s="3">
         <v>1</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="6">
         <v>9007610</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="6">
         <v>245498</v>
       </c>
     </row>
@@ -1633,37 +1604,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="3">
-        <v>41500</v>
+        <v>197000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J22" s="3">
         <v>1</v>
       </c>
-      <c r="K22" s="3">
-        <v>8162155</v>
-      </c>
-      <c r="L22" s="3">
-        <v>222441</v>
+      <c r="K22" s="6">
+        <v>12831598</v>
+      </c>
+      <c r="L22" s="6">
+        <v>356267</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1671,37 +1642,37 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F23" s="3">
-        <v>41500</v>
+        <v>197000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J23" s="3">
         <v>1</v>
       </c>
-      <c r="K23" s="3">
-        <v>4457072</v>
-      </c>
-      <c r="L23" s="3">
-        <v>121393</v>
+      <c r="K23" s="6">
+        <v>7895141</v>
+      </c>
+      <c r="L23" s="6">
+        <v>229781</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1709,688 +1680,418 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F24" s="3">
-        <v>41500</v>
+        <v>147000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
       </c>
-      <c r="K24" s="3">
-        <v>3165380</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100000</v>
+      <c r="K24" s="6">
+        <v>9576370</v>
+      </c>
+      <c r="L24" s="6">
+        <v>265844</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3">
+        <v>147000</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2</v>
+      </c>
+      <c r="K25" s="6">
+        <v>39113645</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1607170</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3">
+        <v>105000</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="3">
         <v>3</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>10</v>
+      <c r="K26" s="6">
+        <v>72884193</v>
+      </c>
+      <c r="L26" s="6">
+        <v>3808922</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F27" s="3">
-        <v>197000</v>
+        <v>105000</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="J27" s="3">
         <v>1</v>
       </c>
-      <c r="K27" s="3">
-        <v>49353176</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1437296</v>
+      <c r="K27" s="6">
+        <v>6841979</v>
+      </c>
+      <c r="L27" s="6">
+        <v>189888</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="3">
+        <v>105000</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="3">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="3">
-        <v>41500</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3">
-        <v>2757873</v>
-      </c>
-      <c r="L28" s="3">
-        <v>100000</v>
+      <c r="K28" s="6">
+        <v>28252672</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1053426</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="3">
+        <v>82500</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="6">
+        <v>10812631</v>
+      </c>
+      <c r="L29" s="6">
+        <v>450838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="3">
+        <v>66000</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="6">
+        <v>4700762</v>
+      </c>
+      <c r="L30" s="6">
+        <v>119358</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="3">
-        <v>197000</v>
+        <v>53000</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="J32" s="3">
         <v>1</v>
       </c>
-      <c r="K32" s="3">
-        <v>12831598</v>
-      </c>
-      <c r="L32" s="3">
-        <v>356267</v>
+      <c r="K32" s="6">
+        <v>3456542</v>
+      </c>
+      <c r="L32" s="6">
+        <v>100000</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F33" s="3">
-        <v>197000</v>
+        <v>41500</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
       </c>
-      <c r="K33" s="3">
-        <v>7895141</v>
-      </c>
-      <c r="L33" s="3">
-        <v>229781</v>
+      <c r="K33" s="6">
+        <v>940008</v>
+      </c>
+      <c r="L33" s="6">
+        <v>100000</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="3">
-        <v>147000</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J34" s="3">
-        <v>1</v>
-      </c>
-      <c r="K34" s="3">
-        <v>9576370</v>
-      </c>
-      <c r="L34" s="3">
-        <v>265844</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" s="3">
-        <v>147000</v>
+        <v>41500</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="J35" s="3">
-        <v>2</v>
-      </c>
-      <c r="K35" s="3">
-        <v>39113645</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1607170</v>
+        <v>1</v>
+      </c>
+      <c r="K35" s="6">
+        <v>2757873</v>
+      </c>
+      <c r="L35" s="6">
+        <v>100000</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>5</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="3">
-        <v>105000</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J36" s="3">
-        <v>3</v>
-      </c>
-      <c r="K36" s="3">
-        <v>72884193</v>
-      </c>
-      <c r="L36" s="3">
-        <v>3808922</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>6</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="3">
-        <v>105000</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J37" s="3">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3">
-        <v>6841979</v>
-      </c>
-      <c r="L37" s="3">
-        <v>189888</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>7</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="3">
-        <v>105000</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J38" s="3">
-        <v>2</v>
-      </c>
-      <c r="K38" s="3">
-        <v>28252672</v>
-      </c>
-      <c r="L38" s="3">
-        <v>1053426</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>8</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="3">
-        <v>82500</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J39" s="3">
-        <v>2</v>
-      </c>
-      <c r="K39" s="3">
-        <v>10812631</v>
-      </c>
-      <c r="L39" s="3">
-        <v>450838</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>9</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="3">
-        <v>82500</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J40" s="3">
-        <v>2</v>
-      </c>
-      <c r="K40" s="3">
-        <v>10812631</v>
-      </c>
-      <c r="L40" s="3">
-        <v>450838</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>10</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="3">
-        <v>66000</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1</v>
-      </c>
-      <c r="K41" s="3">
-        <v>4700762</v>
-      </c>
-      <c r="L41" s="3">
-        <v>119358</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>11</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="3">
-        <v>53000</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1</v>
-      </c>
-      <c r="K42" s="3">
-        <v>3456542</v>
-      </c>
-      <c r="L42" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>12</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="3">
-        <v>41500</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1</v>
-      </c>
-      <c r="K43" s="3">
-        <v>940008</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+      <c r="K36" s="7">
+        <f>SUM(K2:K35)</f>
+        <v>454323448</v>
+      </c>
+      <c r="L36" s="7">
+        <f>SUM(L2:L35)</f>
+        <v>17213938</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/btr.amr.112015.xlsx
+++ b/files/btr.amr.112015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECS\Documents\GitHub\3mm.3atur\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10230" windowHeight="6960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="105">
   <si>
     <t>UNITUP</t>
   </si>
@@ -62,21 +62,30 @@
     <t>55200</t>
   </si>
   <si>
+    <t>552001180404</t>
+  </si>
+  <si>
+    <t>VILLA MESARI</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>JL SUWETA BENTUYUNG UBUD NO 0 UBUD GIANY</t>
+  </si>
+  <si>
     <t>552001023019</t>
   </si>
   <si>
     <t>LUH PUTRI DEWI SINTHAJANY</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>JL BISMA NO 0 UBUD KLOD</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
     <t>JL RAYA BATUBULAN NO 0 TEGEHA</t>
   </si>
   <si>
-    <t>552001180404</t>
-  </si>
-  <si>
-    <t>VILLA MESARI</t>
-  </si>
-  <si>
-    <t>JL SUWETA BENTUYUNG UBUD NO 0 UBUD GIANY</t>
-  </si>
-  <si>
     <t>552000939702</t>
   </si>
   <si>
@@ -143,204 +143,168 @@
     <t>JL RY CELUK GG CELUK SESEH NO   SINGAPADU</t>
   </si>
   <si>
-    <t>552001099369</t>
-  </si>
-  <si>
-    <t>VILLA LOHIA</t>
-  </si>
-  <si>
-    <t>DN SAYAN UBUD DS BAUNG JAMBANGAN NO 0 UBUD</t>
-  </si>
-  <si>
-    <t>551200776655</t>
-  </si>
-  <si>
-    <t>ARTANA,ST I NYOMAN</t>
+    <t>552001207480</t>
+  </si>
+  <si>
+    <t>NI KETUT PURNITI</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>JL BATU INTAN SELATAN NO 0 BATUBULAN</t>
+  </si>
+  <si>
+    <t>551200766867</t>
+  </si>
+  <si>
+    <t>SILA I WAYAN</t>
+  </si>
+  <si>
+    <t>BR TENGKULAK KJ KAUH NO  KEMENUH</t>
+  </si>
+  <si>
+    <t>551200679026</t>
+  </si>
+  <si>
+    <t>SUWEDA I WAYAN</t>
+  </si>
+  <si>
+    <t>JL DS CANGGI NO 0 SAKAH</t>
+  </si>
+  <si>
+    <t>552001221522</t>
+  </si>
+  <si>
+    <t>ARIF SOELEMAN SIREGAR</t>
+  </si>
+  <si>
+    <t>DN PERANGSADA NO 0 PERING</t>
+  </si>
+  <si>
+    <t>551200422601</t>
+  </si>
+  <si>
+    <t>HOTEL ANOM SARI</t>
+  </si>
+  <si>
+    <t>JL LODTUNDUH NO 0 SILUNGAN</t>
+  </si>
+  <si>
+    <t>551200245212</t>
+  </si>
+  <si>
+    <t>PANTIASUHAN BALI GLOBAL A</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>BR BATAN ANCAK NO 0 MAS</t>
+  </si>
+  <si>
+    <t>551200462203</t>
+  </si>
+  <si>
+    <t>NI MADE MAWARNI</t>
+  </si>
+  <si>
+    <t>BR KAPAL NO 0 BATU BULAN</t>
+  </si>
+  <si>
+    <t>552001257523</t>
+  </si>
+  <si>
+    <t>I NENGAH NATYANTA</t>
+  </si>
+  <si>
+    <t>JL TEBONGKANG NO   SINGAKERTA</t>
+  </si>
+  <si>
+    <t>55230</t>
+  </si>
+  <si>
+    <t>552300508590</t>
+  </si>
+  <si>
+    <t>I GEDE ARKASENA WARDANA</t>
+  </si>
+  <si>
+    <t>DN BR DINAS LEBAH NO   SUKEDANA</t>
+  </si>
+  <si>
+    <t>552300361456</t>
+  </si>
+  <si>
+    <t>JUKIAN WAHYUDI</t>
+  </si>
+  <si>
+    <t>DN PEJENG NO 0 MENANGA</t>
+  </si>
+  <si>
+    <t>552300524096</t>
+  </si>
+  <si>
+    <t>I KOMANG WIRAWAN</t>
+  </si>
+  <si>
+    <t>DN MEKARSARI NO 0 SUKADANA</t>
+  </si>
+  <si>
+    <t>552300519758</t>
+  </si>
+  <si>
+    <t>I NYOMAN MURJANA</t>
+  </si>
+  <si>
+    <t>DS SELAT SEBUDI NO   SELAT</t>
+  </si>
+  <si>
+    <t>552300356778</t>
+  </si>
+  <si>
+    <t>RUSMAWATI</t>
+  </si>
+  <si>
+    <t>DN ANCUT NO 0 SEBUDI</t>
+  </si>
+  <si>
+    <t>552300594186</t>
+  </si>
+  <si>
+    <t>IR. A.A.K. SURYA TJANDRA</t>
+  </si>
+  <si>
+    <t>DS TUMBU, KARANGASEM NO - TUMBU</t>
+  </si>
+  <si>
+    <t>551570007672</t>
+  </si>
+  <si>
+    <t>EMERALD BEACH HOTEL</t>
+  </si>
+  <si>
+    <t>DN BATU DAWA KLOD NO 0 TULAMBEN</t>
+  </si>
+  <si>
+    <t>551550091397</t>
+  </si>
+  <si>
+    <t>PT MIAR HARVEST JAYA</t>
+  </si>
+  <si>
+    <t>BR YEH MALET NO 0 YEH MALET</t>
+  </si>
+  <si>
+    <t>552300565202</t>
+  </si>
+  <si>
+    <t>I GEDE BUDI HARTAWAN.ST</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>BR MAJANGAN NO  BUAHAN</t>
-  </si>
-  <si>
-    <t>552001207480</t>
-  </si>
-  <si>
-    <t>NI KETUT PURNITI</t>
-  </si>
-  <si>
-    <t>I2</t>
-  </si>
-  <si>
-    <t>JL BATU INTAN SELATAN NO 0 BATUBULAN</t>
-  </si>
-  <si>
-    <t>552001221522</t>
-  </si>
-  <si>
-    <t>ARIF SOELEMAN SIREGAR</t>
-  </si>
-  <si>
-    <t>DN PERANGSADA NO 0 PERING</t>
-  </si>
-  <si>
-    <t>551200245212</t>
-  </si>
-  <si>
-    <t>PANTIASUHAN BALI GLOBAL A</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>BR BATAN ANCAK NO 0 MAS</t>
-  </si>
-  <si>
-    <t>551200766867</t>
-  </si>
-  <si>
-    <t>SILA I WAYAN</t>
-  </si>
-  <si>
-    <t>BR TENGKULAK KJ KAUH NO  KEMENUH</t>
-  </si>
-  <si>
-    <t>551200422601</t>
-  </si>
-  <si>
-    <t>HOTEL ANOM SARI</t>
-  </si>
-  <si>
-    <t>JL LODTUNDUH NO 0 SILUNGAN</t>
-  </si>
-  <si>
-    <t>551200679026</t>
-  </si>
-  <si>
-    <t>SUWEDA I WAYAN</t>
-  </si>
-  <si>
-    <t>JL DS CANGGI NO 0 SAKAH</t>
-  </si>
-  <si>
-    <t>551230572182</t>
-  </si>
-  <si>
-    <t>DAVID S.KUNG</t>
-  </si>
-  <si>
-    <t>BR JUKUT PAKU NO 0 SINGAKERTA</t>
-  </si>
-  <si>
-    <t>552000979143</t>
-  </si>
-  <si>
-    <t>WIDODO</t>
-  </si>
-  <si>
-    <t>JL BY PASS I B MANTRA (SI0115/D1C4) NO 0 MANYAR</t>
-  </si>
-  <si>
-    <t>551200462203</t>
-  </si>
-  <si>
-    <t>NI MADE MAWARNI</t>
-  </si>
-  <si>
-    <t>BR KAPAL NO 0 BATU BULAN</t>
-  </si>
-  <si>
-    <t>552001257523</t>
-  </si>
-  <si>
-    <t>I NENGAH NATYANTA</t>
-  </si>
-  <si>
-    <t>JL TEBONGKANG NO   SINGAKERTA</t>
-  </si>
-  <si>
-    <t>55230</t>
-  </si>
-  <si>
-    <t>552300361456</t>
-  </si>
-  <si>
-    <t>JUKIAN WAHYUDI</t>
-  </si>
-  <si>
-    <t>DN PEJENG NO 0 MENANGA</t>
-  </si>
-  <si>
-    <t>552300508590</t>
-  </si>
-  <si>
-    <t>I GEDE ARKASENA WARDANA</t>
-  </si>
-  <si>
-    <t>DN BR DINAS LEBAH NO   SUKEDANA</t>
-  </si>
-  <si>
-    <t>552300524096</t>
-  </si>
-  <si>
-    <t>I KOMANG WIRAWAN</t>
-  </si>
-  <si>
-    <t>DN MEKARSARI NO 0 SUKADANA</t>
-  </si>
-  <si>
-    <t>552300519758</t>
-  </si>
-  <si>
-    <t>I NYOMAN MURJANA</t>
-  </si>
-  <si>
-    <t>DS SELAT SEBUDI NO   SELAT</t>
-  </si>
-  <si>
-    <t>552300356778</t>
-  </si>
-  <si>
-    <t>RUSMAWATI</t>
-  </si>
-  <si>
-    <t>DN ANCUT NO 0 SEBUDI</t>
-  </si>
-  <si>
-    <t>551570007672</t>
-  </si>
-  <si>
-    <t>EMERALD BEACH HOTEL</t>
-  </si>
-  <si>
-    <t>DN BATU DAWA KLOD NO 0 TULAMBEN</t>
-  </si>
-  <si>
-    <t>552300594186</t>
-  </si>
-  <si>
-    <t>IR. A.A.K. SURYA TJANDRA</t>
-  </si>
-  <si>
-    <t>DS TUMBU, KARANGASEM NO - TUMBU</t>
-  </si>
-  <si>
-    <t>551550091397</t>
-  </si>
-  <si>
-    <t>PT MIAR HARVEST JAYA</t>
-  </si>
-  <si>
-    <t>BR YEH MALET NO 0 YEH MALET</t>
-  </si>
-  <si>
-    <t>552300565202</t>
-  </si>
-  <si>
-    <t>I GEDE BUDI HARTAWAN.ST</t>
-  </si>
-  <si>
     <t>JL RAYA BUITAN NO 000 MANGGIS</t>
   </si>
   <si>
@@ -374,17 +338,15 @@
     <t>KL NUSA LEMBONGAN NO  JUNGUT BAT</t>
   </si>
   <si>
-    <t>No</t>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -479,7 +441,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,7 +452,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -780,13 +741,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="72.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="69.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
@@ -795,15 +756,15 @@
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="67" customWidth="1"/>
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -832,10 +793,10 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -847,16 +808,16 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="3">
-        <v>197000</v>
+        <v>53000</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
@@ -865,16 +826,16 @@
         <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6">
-        <v>16086260</v>
-      </c>
-      <c r="L2" s="6">
-        <v>438553</v>
+        <v>3</v>
+      </c>
+      <c r="K2" s="5">
+        <v>10342993</v>
+      </c>
+      <c r="L2" s="5">
+        <v>600000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -885,16 +846,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="3">
-        <v>197000</v>
+        <v>147000</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -903,16 +864,16 @@
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6">
-        <v>12299911</v>
-      </c>
-      <c r="L3" s="6">
-        <v>335288</v>
+        <v>2</v>
+      </c>
+      <c r="K3" s="5">
+        <v>73773552</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2986568</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -923,10 +884,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -941,15 +902,15 @@
         <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>13069109</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>356267</v>
       </c>
     </row>
@@ -961,16 +922,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="3">
-        <v>147000</v>
+        <v>197000</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>15</v>
@@ -979,16 +940,16 @@
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3">
-        <v>2</v>
-      </c>
-      <c r="K5" s="6">
-        <v>73773552</v>
-      </c>
-      <c r="L5" s="6">
-        <v>2986568</v>
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>16086260</v>
+      </c>
+      <c r="L5" s="5">
+        <v>438553</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -999,16 +960,16 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="3">
-        <v>105000</v>
+        <v>197000</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
@@ -1017,16 +978,16 @@
         <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="6">
-        <v>25402807</v>
-      </c>
-      <c r="L6" s="6">
-        <v>692640</v>
+      <c r="K6" s="5">
+        <v>12299911</v>
+      </c>
+      <c r="L6" s="5">
+        <v>335288</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1037,10 +998,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -1055,16 +1016,16 @@
         <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="6">
-        <v>6968571</v>
-      </c>
-      <c r="L7" s="6">
-        <v>189888</v>
+      <c r="K7" s="5">
+        <v>25402807</v>
+      </c>
+      <c r="L7" s="5">
+        <v>692640</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1075,10 +1036,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
@@ -1093,15 +1054,15 @@
         <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>6968571</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>189888</v>
       </c>
     </row>
@@ -1113,16 +1074,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="3">
-        <v>82500</v>
+        <v>105000</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>15</v>
@@ -1131,16 +1092,16 @@
         <v>16</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J9" s="3">
         <v>1</v>
       </c>
-      <c r="K9" s="6">
-        <v>5476592</v>
-      </c>
-      <c r="L9" s="6">
-        <v>149198</v>
+      <c r="K9" s="5">
+        <v>6968571</v>
+      </c>
+      <c r="L9" s="5">
+        <v>189888</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1151,10 +1112,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -1169,16 +1130,16 @@
         <v>16</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J10" s="3">
-        <v>3</v>
-      </c>
-      <c r="K10" s="6">
-        <v>20713400</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1048886</v>
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>5476592</v>
+      </c>
+      <c r="L10" s="5">
+        <v>149198</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1189,13 +1150,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" s="3">
         <v>66000</v>
@@ -1207,16 +1168,16 @@
         <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="6">
-        <v>9771684</v>
-      </c>
-      <c r="L11" s="6">
-        <v>244142</v>
+      <c r="K11" s="5">
+        <v>2649062</v>
+      </c>
+      <c r="L11" s="5">
+        <v>100000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1227,16 +1188,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F12" s="3">
-        <v>66000</v>
+        <v>53000</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>15</v>
@@ -1245,15 +1206,15 @@
         <v>16</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" s="6">
-        <v>2649062</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="K12" s="5">
+        <v>2128459</v>
+      </c>
+      <c r="L12" s="5">
         <v>100000</v>
       </c>
     </row>
@@ -1265,13 +1226,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3">
         <v>53000</v>
@@ -1283,16 +1244,16 @@
         <v>16</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J13" s="3">
-        <v>3</v>
-      </c>
-      <c r="K13" s="6">
-        <v>10342993</v>
-      </c>
-      <c r="L13" s="6">
-        <v>600000</v>
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2128459</v>
+      </c>
+      <c r="L13" s="5">
+        <v>100000</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1303,13 +1264,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F14" s="3">
         <v>53000</v>
@@ -1321,16 +1282,16 @@
         <v>16</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="6">
-        <v>2916600</v>
-      </c>
-      <c r="L14" s="6">
-        <v>100000</v>
+      <c r="K14" s="5">
+        <v>18771787</v>
+      </c>
+      <c r="L14" s="5">
+        <v>511794</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1341,13 +1302,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F15" s="3">
         <v>53000</v>
@@ -1359,15 +1320,15 @@
         <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
-      <c r="K15" s="6">
-        <v>2128459</v>
-      </c>
-      <c r="L15" s="6">
+      <c r="K15" s="5">
+        <v>2916600</v>
+      </c>
+      <c r="L15" s="5">
         <v>100000</v>
       </c>
     </row>
@@ -1379,34 +1340,34 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="3">
-        <v>53000</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="J16" s="3">
         <v>1</v>
       </c>
-      <c r="K16" s="6">
-        <v>18771787</v>
-      </c>
-      <c r="L16" s="6">
-        <v>511794</v>
+      <c r="K16" s="5">
+        <v>4457072</v>
+      </c>
+      <c r="L16" s="5">
+        <v>121393</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1417,92 +1378,54 @@
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="3">
-        <v>53000</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="J17" s="3">
         <v>1</v>
       </c>
-      <c r="K17" s="6">
-        <v>2128459</v>
-      </c>
-      <c r="L17" s="6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="3">
-        <v>41500</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="6">
-        <v>8162155</v>
-      </c>
-      <c r="L18" s="6">
-        <v>222441</v>
+      <c r="K17" s="5">
+        <v>9007610</v>
+      </c>
+      <c r="L17" s="5">
+        <v>245498</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F19" s="3">
-        <v>41500</v>
+        <v>105000</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>15</v>
@@ -1511,36 +1434,36 @@
         <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="6">
-        <v>3165380</v>
-      </c>
-      <c r="L19" s="6">
-        <v>100000</v>
+        <v>3</v>
+      </c>
+      <c r="K19" s="5">
+        <v>72884193</v>
+      </c>
+      <c r="L19" s="5">
+        <v>3808922</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="3">
-        <v>41500</v>
+        <v>147000</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>15</v>
@@ -1549,36 +1472,36 @@
         <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="6">
-        <v>4457072</v>
-      </c>
-      <c r="L20" s="6">
-        <v>121393</v>
+        <v>2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>39113645</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1607170</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="3">
-        <v>41500</v>
+        <v>105000</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>15</v>
@@ -1587,36 +1510,36 @@
         <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="6">
-        <v>9007610</v>
-      </c>
-      <c r="L21" s="6">
-        <v>245498</v>
+        <v>2</v>
+      </c>
+      <c r="K21" s="5">
+        <v>28252672</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1053426</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="3">
-        <v>197000</v>
+        <v>82500</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>15</v>
@@ -1625,33 +1548,33 @@
         <v>16</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="6">
-        <v>12831598</v>
-      </c>
-      <c r="L22" s="6">
-        <v>356267</v>
+        <v>2</v>
+      </c>
+      <c r="K22" s="5">
+        <v>10812631</v>
+      </c>
+      <c r="L22" s="5">
+        <v>450838</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F23" s="3">
         <v>197000</v>
@@ -1663,36 +1586,36 @@
         <v>16</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J23" s="3">
         <v>1</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>7895141</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>229781</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="3">
-        <v>147000</v>
+        <v>197000</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>15</v>
@@ -1701,30 +1624,30 @@
         <v>16</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
       </c>
-      <c r="K24" s="6">
-        <v>9576370</v>
-      </c>
-      <c r="L24" s="6">
-        <v>265844</v>
+      <c r="K24" s="5">
+        <v>12831598</v>
+      </c>
+      <c r="L24" s="5">
+        <v>356267</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -1739,30 +1662,30 @@
         <v>16</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="J25" s="3">
-        <v>2</v>
-      </c>
-      <c r="K25" s="6">
-        <v>39113645</v>
-      </c>
-      <c r="L25" s="6">
-        <v>1607170</v>
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
+        <v>9576370</v>
+      </c>
+      <c r="L25" s="5">
+        <v>265844</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
@@ -1777,36 +1700,36 @@
         <v>16</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J26" s="3">
-        <v>3</v>
-      </c>
-      <c r="K26" s="6">
-        <v>72884193</v>
-      </c>
-      <c r="L26" s="6">
-        <v>3808922</v>
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>6841979</v>
+      </c>
+      <c r="L26" s="5">
+        <v>189888</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="F27" s="3">
-        <v>105000</v>
+        <v>66000</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>15</v>
@@ -1815,36 +1738,36 @@
         <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J27" s="3">
         <v>1</v>
       </c>
-      <c r="K27" s="6">
-        <v>6841979</v>
-      </c>
-      <c r="L27" s="6">
-        <v>189888</v>
+      <c r="K27" s="5">
+        <v>4700762</v>
+      </c>
+      <c r="L27" s="5">
+        <v>119358</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="3">
-        <v>105000</v>
+        <v>53000</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>15</v>
@@ -1853,247 +1776,108 @@
         <v>16</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J28" s="3">
-        <v>2</v>
-      </c>
-      <c r="K28" s="6">
-        <v>28252672</v>
-      </c>
-      <c r="L28" s="6">
-        <v>1053426</v>
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>3456542</v>
+      </c>
+      <c r="L28" s="5">
+        <v>100000</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>940008</v>
+      </c>
+      <c r="L29" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="3">
-        <v>82500</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="3">
-        <v>2</v>
-      </c>
-      <c r="K29" s="6">
-        <v>10812631</v>
-      </c>
-      <c r="L29" s="6">
-        <v>450838</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="3">
-        <v>66000</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
-      <c r="K30" s="6">
-        <v>4700762</v>
-      </c>
-      <c r="L30" s="6">
-        <v>119358</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>2757873</v>
+      </c>
+      <c r="L31" s="5">
+        <v>100000</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="3">
-        <v>53000</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1</v>
-      </c>
       <c r="K32" s="6">
-        <v>3456542</v>
+        <f>SUM(K2:K31)</f>
+        <v>412510829</v>
       </c>
       <c r="L32" s="6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="3">
-        <v>41500</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1</v>
-      </c>
-      <c r="K33" s="6">
-        <v>940008</v>
-      </c>
-      <c r="L33" s="6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>32</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="3">
-        <v>41500</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1</v>
-      </c>
-      <c r="K35" s="6">
-        <v>2757873</v>
-      </c>
-      <c r="L35" s="6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K36" s="7">
-        <f>SUM(K2:K35)</f>
-        <v>454323448</v>
-      </c>
-      <c r="L36" s="7">
-        <f>SUM(L2:L35)</f>
-        <v>17213938</v>
+        <f>SUM(L2:L31)</f>
+        <v>15598469</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:L17">
+    <sortCondition descending="1" ref="J2:J17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/btr.amr.112015.xlsx
+++ b/files/btr.amr.112015.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="106">
   <si>
     <t>UNITUP</t>
   </si>
@@ -62,42 +62,42 @@
     <t>55200</t>
   </si>
   <si>
+    <t>551200750455</t>
+  </si>
+  <si>
+    <t>MUSTIKA SARI I MADE</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>JL RAYA BATUBULAN NO 0 TEGEHA</t>
+  </si>
+  <si>
+    <t>552001023019</t>
+  </si>
+  <si>
+    <t>LUH PUTRI DEWI SINTHAJANY</t>
+  </si>
+  <si>
+    <t>JL BISMA NO 0 UBUD KLOD</t>
+  </si>
+  <si>
     <t>552001180404</t>
   </si>
   <si>
     <t>VILLA MESARI</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>JL SUWETA BENTUYUNG UBUD NO 0 UBUD GIANY</t>
   </si>
   <si>
-    <t>552001023019</t>
-  </si>
-  <si>
-    <t>LUH PUTRI DEWI SINTHAJANY</t>
-  </si>
-  <si>
-    <t>JL BISMA NO 0 UBUD KLOD</t>
-  </si>
-  <si>
-    <t>551200750455</t>
-  </si>
-  <si>
-    <t>MUSTIKA SARI I MADE</t>
-  </si>
-  <si>
-    <t>JL RAYA BATUBULAN NO 0 TEGEHA</t>
-  </si>
-  <si>
     <t>552000939702</t>
   </si>
   <si>
@@ -107,6 +107,15 @@
     <t>JL COK RAI PUDAK BR. YANGLONI NO 0 TEGES</t>
   </si>
   <si>
+    <t>552000906708</t>
+  </si>
+  <si>
+    <t>SUKURAJA BS. I GEDE NGURA</t>
+  </si>
+  <si>
+    <t>BR KENGETAN NO 0 KENGETAN</t>
+  </si>
+  <si>
     <t>552001111048</t>
   </si>
   <si>
@@ -116,15 +125,6 @@
     <t>JL BUKIT JATI KEL SAMPLANGAN GIANYAR NO 0 BUKIT JATI</t>
   </si>
   <si>
-    <t>552000906708</t>
-  </si>
-  <si>
-    <t>SUKURAJA BS. I GEDE NGURA</t>
-  </si>
-  <si>
-    <t>BR KENGETAN NO 0 KENGETAN</t>
-  </si>
-  <si>
     <t>552001237590</t>
   </si>
   <si>
@@ -164,6 +164,27 @@
     <t>BR TENGKULAK KJ KAUH NO  KEMENUH</t>
   </si>
   <si>
+    <t>551200422601</t>
+  </si>
+  <si>
+    <t>HOTEL ANOM SARI</t>
+  </si>
+  <si>
+    <t>JL LODTUNDUH NO 0 SILUNGAN</t>
+  </si>
+  <si>
+    <t>551200245212</t>
+  </si>
+  <si>
+    <t>PANTIASUHAN BALI GLOBAL A</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>BR BATAN ANCAK NO 0 MAS</t>
+  </si>
+  <si>
     <t>551200679026</t>
   </si>
   <si>
@@ -182,25 +203,13 @@
     <t>DN PERANGSADA NO 0 PERING</t>
   </si>
   <si>
-    <t>551200422601</t>
-  </si>
-  <si>
-    <t>HOTEL ANOM SARI</t>
-  </si>
-  <si>
-    <t>JL LODTUNDUH NO 0 SILUNGAN</t>
-  </si>
-  <si>
-    <t>551200245212</t>
-  </si>
-  <si>
-    <t>PANTIASUHAN BALI GLOBAL A</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>BR BATAN ANCAK NO 0 MAS</t>
+    <t>552001257523</t>
+  </si>
+  <si>
+    <t>I NENGAH NATYANTA</t>
+  </si>
+  <si>
+    <t>JL TEBONGKANG NO   SINGAKERTA</t>
   </si>
   <si>
     <t>551200462203</t>
@@ -212,18 +221,18 @@
     <t>BR KAPAL NO 0 BATU BULAN</t>
   </si>
   <si>
-    <t>552001257523</t>
-  </si>
-  <si>
-    <t>I NENGAH NATYANTA</t>
-  </si>
-  <si>
-    <t>JL TEBONGKANG NO   SINGAKERTA</t>
-  </si>
-  <si>
     <t>55230</t>
   </si>
   <si>
+    <t>552300361456</t>
+  </si>
+  <si>
+    <t>JUKIAN WAHYUDI</t>
+  </si>
+  <si>
+    <t>DN PEJENG NO 0 MENANGA</t>
+  </si>
+  <si>
     <t>552300508590</t>
   </si>
   <si>
@@ -233,15 +242,6 @@
     <t>DN BR DINAS LEBAH NO   SUKEDANA</t>
   </si>
   <si>
-    <t>552300361456</t>
-  </si>
-  <si>
-    <t>JUKIAN WAHYUDI</t>
-  </si>
-  <si>
-    <t>DN PEJENG NO 0 MENANGA</t>
-  </si>
-  <si>
     <t>552300524096</t>
   </si>
   <si>
@@ -260,6 +260,24 @@
     <t>DS SELAT SEBUDI NO   SELAT</t>
   </si>
   <si>
+    <t>551570007672</t>
+  </si>
+  <si>
+    <t>EMERALD BEACH HOTEL</t>
+  </si>
+  <si>
+    <t>DN BATU DAWA KLOD NO 0 TULAMBEN</t>
+  </si>
+  <si>
+    <t>552300594186</t>
+  </si>
+  <si>
+    <t>IR. A.A.K. SURYA TJANDRA</t>
+  </si>
+  <si>
+    <t>DS TUMBU, KARANGASEM NO - TUMBU</t>
+  </si>
+  <si>
     <t>552300356778</t>
   </si>
   <si>
@@ -269,24 +287,6 @@
     <t>DN ANCUT NO 0 SEBUDI</t>
   </si>
   <si>
-    <t>552300594186</t>
-  </si>
-  <si>
-    <t>IR. A.A.K. SURYA TJANDRA</t>
-  </si>
-  <si>
-    <t>DS TUMBU, KARANGASEM NO - TUMBU</t>
-  </si>
-  <si>
-    <t>551570007672</t>
-  </si>
-  <si>
-    <t>EMERALD BEACH HOTEL</t>
-  </si>
-  <si>
-    <t>DN BATU DAWA KLOD NO 0 TULAMBEN</t>
-  </si>
-  <si>
     <t>551550091397</t>
   </si>
   <si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>KL NUSA LEMBONGAN NO  JUNGUT BAT</t>
+  </si>
+  <si>
+    <t>FILE CREATE 27.11.2015. 09:40</t>
   </si>
   <si>
     <t>NO</t>
@@ -348,15 +351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,18 +364,21 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -438,32 +436,32 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="41" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="2"/>
+    <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,13 +739,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="69.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="75.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
@@ -756,106 +754,73 @@
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="67" customWidth="1"/>
+    <col min="9" max="9" width="64.42578125" customWidth="1"/>
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3">
-        <v>53000</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="3">
-        <v>3</v>
-      </c>
-      <c r="K2" s="5">
-        <v>10342993</v>
-      </c>
-      <c r="L2" s="5">
-        <v>600000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="3">
-        <v>147000</v>
+        <v>197000</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -864,30 +829,30 @@
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J3" s="3">
-        <v>2</v>
-      </c>
-      <c r="K3" s="5">
-        <v>73773552</v>
-      </c>
-      <c r="L3" s="5">
-        <v>2986568</v>
+        <v>1</v>
+      </c>
+      <c r="K3" s="6">
+        <v>12299911</v>
+      </c>
+      <c r="L3" s="6">
+        <v>335288</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -902,30 +867,30 @@
         <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="5">
-        <v>13069109</v>
-      </c>
-      <c r="L4" s="5">
-        <v>356267</v>
+      <c r="K4" s="6">
+        <v>16086260</v>
+      </c>
+      <c r="L4" s="6">
+        <v>438553</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -940,36 +905,36 @@
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="5">
-        <v>16086260</v>
-      </c>
-      <c r="L5" s="5">
-        <v>438553</v>
+      <c r="K5" s="6">
+        <v>13069109</v>
+      </c>
+      <c r="L5" s="6">
+        <v>356267</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="3">
-        <v>197000</v>
+        <v>147000</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
@@ -978,21 +943,21 @@
         <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
-        <v>12299911</v>
-      </c>
-      <c r="L6" s="5">
-        <v>335288</v>
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>73773552</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2986568</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -1021,16 +986,16 @@
       <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="5">
-        <v>25402807</v>
-      </c>
-      <c r="L7" s="5">
-        <v>692640</v>
+      <c r="K7" s="6">
+        <v>6968571</v>
+      </c>
+      <c r="L7" s="6">
+        <v>189888</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -1059,16 +1024,16 @@
       <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
-        <v>6968571</v>
-      </c>
-      <c r="L8" s="5">
-        <v>189888</v>
+      <c r="K8" s="6">
+        <v>25402807</v>
+      </c>
+      <c r="L8" s="6">
+        <v>692640</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1097,16 +1062,16 @@
       <c r="J9" s="3">
         <v>1</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>6968571</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>189888</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -1135,16 +1100,16 @@
       <c r="J10" s="3">
         <v>1</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>5476592</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="6">
         <v>149198</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -1173,16 +1138,16 @@
       <c r="J11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>2649062</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>100000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -1211,16 +1176,16 @@
       <c r="J12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <v>2128459</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="6">
         <v>100000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -1232,7 +1197,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F13" s="3">
         <v>53000</v>
@@ -1249,28 +1214,28 @@
       <c r="J13" s="3">
         <v>1</v>
       </c>
-      <c r="K13" s="5">
-        <v>2128459</v>
-      </c>
-      <c r="L13" s="5">
-        <v>100000</v>
+      <c r="K13" s="6">
+        <v>18771787</v>
+      </c>
+      <c r="L13" s="6">
+        <v>511794</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F14" s="3">
         <v>53000</v>
@@ -1282,33 +1247,33 @@
         <v>16</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="5">
-        <v>18771787</v>
-      </c>
-      <c r="L14" s="5">
-        <v>511794</v>
+      <c r="K14" s="6">
+        <v>2916600</v>
+      </c>
+      <c r="L14" s="6">
+        <v>100000</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F15" s="3">
         <v>53000</v>
@@ -1320,36 +1285,36 @@
         <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
-      <c r="K15" s="5">
-        <v>2916600</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="K15" s="6">
+        <v>2128459</v>
+      </c>
+      <c r="L15" s="6">
         <v>100000</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="3">
-        <v>41500</v>
+        <v>53000</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>15</v>
@@ -1358,30 +1323,30 @@
         <v>16</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <v>4457072</v>
-      </c>
-      <c r="L16" s="5">
-        <v>121393</v>
+        <v>3</v>
+      </c>
+      <c r="K16" s="6">
+        <v>10342993</v>
+      </c>
+      <c r="L16" s="6">
+        <v>600000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>14</v>
@@ -1396,74 +1361,74 @@
         <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>9007610</v>
+      </c>
+      <c r="L17" s="6">
+        <v>245498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <v>9007610</v>
-      </c>
-      <c r="L17" s="5">
-        <v>245498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="3">
-        <v>105000</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="3">
-        <v>3</v>
-      </c>
-      <c r="K19" s="5">
-        <v>72884193</v>
-      </c>
-      <c r="L19" s="5">
-        <v>3808922</v>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>4457072</v>
+      </c>
+      <c r="L18" s="6">
+        <v>121393</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="3">
-        <v>147000</v>
+        <v>197000</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>15</v>
@@ -1472,36 +1437,36 @@
         <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J20" s="3">
-        <v>2</v>
-      </c>
-      <c r="K20" s="5">
-        <v>39113645</v>
-      </c>
-      <c r="L20" s="5">
-        <v>1607170</v>
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>12831598</v>
+      </c>
+      <c r="L20" s="6">
+        <v>356267</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F21" s="3">
-        <v>105000</v>
+        <v>197000</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>15</v>
@@ -1510,36 +1475,36 @@
         <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="J21" s="3">
-        <v>2</v>
-      </c>
-      <c r="K21" s="5">
-        <v>28252672</v>
-      </c>
-      <c r="L21" s="5">
-        <v>1053426</v>
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
+        <v>7895141</v>
+      </c>
+      <c r="L21" s="6">
+        <v>229781</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="3">
-        <v>82500</v>
+        <v>147000</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>15</v>
@@ -1548,36 +1513,36 @@
         <v>16</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="J22" s="3">
-        <v>2</v>
-      </c>
-      <c r="K22" s="5">
-        <v>10812631</v>
-      </c>
-      <c r="L22" s="5">
-        <v>450838</v>
+        <v>1</v>
+      </c>
+      <c r="K22" s="6">
+        <v>9576370</v>
+      </c>
+      <c r="L22" s="6">
+        <v>265844</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F23" s="3">
-        <v>197000</v>
+        <v>147000</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>15</v>
@@ -1586,36 +1551,36 @@
         <v>16</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5">
-        <v>7895141</v>
-      </c>
-      <c r="L23" s="5">
-        <v>229781</v>
+        <v>2</v>
+      </c>
+      <c r="K23" s="6">
+        <v>39113645</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1607170</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="3">
-        <v>197000</v>
+        <v>105000</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>15</v>
@@ -1624,36 +1589,36 @@
         <v>16</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
       </c>
-      <c r="K24" s="5">
-        <v>12831598</v>
-      </c>
-      <c r="L24" s="5">
-        <v>356267</v>
+      <c r="K24" s="6">
+        <v>6841979</v>
+      </c>
+      <c r="L24" s="6">
+        <v>189888</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="3">
-        <v>147000</v>
+        <v>105000</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>15</v>
@@ -1662,21 +1627,21 @@
         <v>16</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J25" s="3">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5">
-        <v>9576370</v>
-      </c>
-      <c r="L25" s="5">
-        <v>265844</v>
+        <v>2</v>
+      </c>
+      <c r="K25" s="6">
+        <v>28252672</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1053426</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1703,33 +1668,33 @@
         <v>86</v>
       </c>
       <c r="J26" s="3">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5">
-        <v>6841979</v>
-      </c>
-      <c r="L26" s="5">
-        <v>189888</v>
+        <v>3</v>
+      </c>
+      <c r="K26" s="6">
+        <v>72884193</v>
+      </c>
+      <c r="L26" s="6">
+        <v>3808922</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="F27" s="3">
-        <v>66000</v>
+        <v>82500</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>15</v>
@@ -1738,36 +1703,36 @@
         <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5">
-        <v>4700762</v>
-      </c>
-      <c r="L27" s="5">
-        <v>119358</v>
+        <v>2</v>
+      </c>
+      <c r="K27" s="6">
+        <v>10812631</v>
+      </c>
+      <c r="L27" s="6">
+        <v>450838</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="F28" s="3">
-        <v>53000</v>
+        <v>66000</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>15</v>
@@ -1776,108 +1741,143 @@
         <v>16</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J28" s="3">
         <v>1</v>
       </c>
-      <c r="K28" s="5">
-        <v>3456542</v>
-      </c>
-      <c r="L28" s="5">
-        <v>100000</v>
+      <c r="K28" s="6">
+        <v>4700762</v>
+      </c>
+      <c r="L28" s="6">
+        <v>119358</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="3">
+        <v>53000</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="6">
+        <v>3456542</v>
+      </c>
+      <c r="L29" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="3">
         <v>41500</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5">
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="6">
         <v>940008</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L30" s="6">
         <v>100000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3">
         <v>41500</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5">
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="6">
         <v>2757873</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L32" s="6">
         <v>100000</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K32" s="6">
-        <f>SUM(K2:K31)</f>
+    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K33" s="4">
+        <f>SUM(K3:K32)</f>
         <v>412510829</v>
       </c>
-      <c r="L32" s="6">
-        <f>SUM(L2:L31)</f>
+      <c r="L33" s="4">
+        <f>SUM(L3:L32)</f>
         <v>15598469</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:L17">
-    <sortCondition descending="1" ref="J2:J17"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/btr.amr.112015.xlsx
+++ b/files/btr.amr.112015.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECS\Documents\GitHub\3mm.3atur\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="amr 2911_1620" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
   <si>
     <t>UNITUP</t>
   </si>
@@ -62,21 +52,30 @@
     <t>55200</t>
   </si>
   <si>
+    <t>552001180404</t>
+  </si>
+  <si>
+    <t>VILLA MESARI</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>JL SUWETA BENTUYUNG UBUD NO 0 UBUD GIANY</t>
+  </si>
+  <si>
     <t>551200750455</t>
   </si>
   <si>
     <t>MUSTIKA SARI I MADE</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>JL RAYA BATUBULAN NO 0 TEGEHA</t>
   </si>
   <si>
@@ -89,15 +88,6 @@
     <t>JL BISMA NO 0 UBUD KLOD</t>
   </si>
   <si>
-    <t>552001180404</t>
-  </si>
-  <si>
-    <t>VILLA MESARI</t>
-  </si>
-  <si>
-    <t>JL SUWETA BENTUYUNG UBUD NO 0 UBUD GIANY</t>
-  </si>
-  <si>
     <t>552000939702</t>
   </si>
   <si>
@@ -155,6 +145,18 @@
     <t>JL BATU INTAN SELATAN NO 0 BATUBULAN</t>
   </si>
   <si>
+    <t>551200245212</t>
+  </si>
+  <si>
+    <t>PANTIASUHAN BALI GLOBAL A</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>BR BATAN ANCAK NO 0 MAS</t>
+  </si>
+  <si>
     <t>551200766867</t>
   </si>
   <si>
@@ -164,27 +166,6 @@
     <t>BR TENGKULAK KJ KAUH NO  KEMENUH</t>
   </si>
   <si>
-    <t>551200422601</t>
-  </si>
-  <si>
-    <t>HOTEL ANOM SARI</t>
-  </si>
-  <si>
-    <t>JL LODTUNDUH NO 0 SILUNGAN</t>
-  </si>
-  <si>
-    <t>551200245212</t>
-  </si>
-  <si>
-    <t>PANTIASUHAN BALI GLOBAL A</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>BR BATAN ANCAK NO 0 MAS</t>
-  </si>
-  <si>
     <t>551200679026</t>
   </si>
   <si>
@@ -212,18 +193,18 @@
     <t>JL TEBONGKANG NO   SINGAKERTA</t>
   </si>
   <si>
-    <t>551200462203</t>
-  </si>
-  <si>
-    <t>NI MADE MAWARNI</t>
-  </si>
-  <si>
-    <t>BR KAPAL NO 0 BATU BULAN</t>
-  </si>
-  <si>
     <t>55230</t>
   </si>
   <si>
+    <t>552300508590</t>
+  </si>
+  <si>
+    <t>I GEDE ARKASENA WARDANA</t>
+  </si>
+  <si>
+    <t>DN BR DINAS LEBAH NO   SUKEDANA</t>
+  </si>
+  <si>
     <t>552300361456</t>
   </si>
   <si>
@@ -233,15 +214,6 @@
     <t>DN PEJENG NO 0 MENANGA</t>
   </si>
   <si>
-    <t>552300508590</t>
-  </si>
-  <si>
-    <t>I GEDE ARKASENA WARDANA</t>
-  </si>
-  <si>
-    <t>DN BR DINAS LEBAH NO   SUKEDANA</t>
-  </si>
-  <si>
     <t>552300524096</t>
   </si>
   <si>
@@ -260,6 +232,15 @@
     <t>DS SELAT SEBUDI NO   SELAT</t>
   </si>
   <si>
+    <t>552300594186</t>
+  </si>
+  <si>
+    <t>IR. A.A.K. SURYA TJANDRA</t>
+  </si>
+  <si>
+    <t>DS TUMBU, KARANGASEM NO - TUMBU</t>
+  </si>
+  <si>
     <t>551570007672</t>
   </si>
   <si>
@@ -269,24 +250,6 @@
     <t>DN BATU DAWA KLOD NO 0 TULAMBEN</t>
   </si>
   <si>
-    <t>552300594186</t>
-  </si>
-  <si>
-    <t>IR. A.A.K. SURYA TJANDRA</t>
-  </si>
-  <si>
-    <t>DS TUMBU, KARANGASEM NO - TUMBU</t>
-  </si>
-  <si>
-    <t>552300356778</t>
-  </si>
-  <si>
-    <t>RUSMAWATI</t>
-  </si>
-  <si>
-    <t>DN ANCUT NO 0 SEBUDI</t>
-  </si>
-  <si>
     <t>551550091397</t>
   </si>
   <si>
@@ -338,20 +301,28 @@
     <t>KL NUSA LEMBONGAN NO  JUNGUT BAT</t>
   </si>
   <si>
-    <t>FILE CREATE 27.11.2015. 09:40</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,20 +335,27 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -436,43 +414,37 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="41" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal_Sheet1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -487,39 +459,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,10 +523,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,7 +557,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -598,154 +568,178 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="75.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="65.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
@@ -754,73 +748,106 @@
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.42578125" customWidth="1"/>
+    <col min="9" max="9" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3">
+        <v>53000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5">
+        <v>10342993</v>
+      </c>
+      <c r="L2" s="5">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="3">
-        <v>197000</v>
+        <v>147000</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -829,30 +856,30 @@
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6">
-        <v>12299911</v>
-      </c>
-      <c r="L3" s="6">
-        <v>335288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5">
+        <v>73773552</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2986568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -867,30 +894,30 @@
         <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="6">
-        <v>16086260</v>
-      </c>
-      <c r="L4" s="6">
-        <v>438553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4" s="5">
+        <v>13069109</v>
+      </c>
+      <c r="L4" s="5">
+        <v>356267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -905,36 +932,36 @@
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="6">
-        <v>13069109</v>
-      </c>
-      <c r="L5" s="6">
-        <v>356267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" s="5">
+        <v>12299911</v>
+      </c>
+      <c r="L5" s="5">
+        <v>335288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="3">
-        <v>147000</v>
+        <v>197000</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
@@ -943,21 +970,21 @@
         <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="6">
-        <v>73773552</v>
-      </c>
-      <c r="L6" s="6">
-        <v>2986568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>16086260</v>
+      </c>
+      <c r="L6" s="5">
+        <v>438553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -986,16 +1013,16 @@
       <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>6968571</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>189888</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -1024,16 +1051,16 @@
       <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>25402807</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>692640</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1062,16 +1089,16 @@
       <c r="J9" s="3">
         <v>1</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>6968571</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>189888</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -1100,16 +1127,16 @@
       <c r="J10" s="3">
         <v>1</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>5476592</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>149198</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -1138,16 +1165,16 @@
       <c r="J11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>2649062</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -1159,7 +1186,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3">
         <v>53000</v>
@@ -1171,33 +1198,33 @@
         <v>16</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" s="6">
-        <v>2128459</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="K12" s="5">
+        <v>2916600</v>
+      </c>
+      <c r="L12" s="5">
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3">
         <v>53000</v>
@@ -1209,33 +1236,33 @@
         <v>16</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
-      <c r="K13" s="6">
-        <v>18771787</v>
-      </c>
-      <c r="L13" s="6">
-        <v>511794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K13" s="5">
+        <v>2128459</v>
+      </c>
+      <c r="L13" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F14" s="3">
         <v>53000</v>
@@ -1252,180 +1279,190 @@
       <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="6">
-        <v>2916600</v>
-      </c>
-      <c r="L14" s="6">
+      <c r="K14" s="5">
+        <v>2128459</v>
+      </c>
+      <c r="L14" s="5">
         <v>100000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>9007610</v>
+      </c>
+      <c r="L15" s="5">
+        <v>245498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="K16" s="7">
+        <f>SUM(K2:K15)</f>
+        <v>189218556</v>
+      </c>
+      <c r="L16" s="7">
+        <f>SUM(L2:L15)</f>
+        <v>6583788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3">
+        <v>147000</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="5">
+        <v>39113645</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1607170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3">
+        <v>105000</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="5">
+        <v>28252672</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1053426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="3">
+        <v>82500</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>10812631</v>
+      </c>
+      <c r="L19" s="5">
+        <v>450838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F15" s="3">
-        <v>53000</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="6">
-        <v>2128459</v>
-      </c>
-      <c r="L15" s="6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="3">
-        <v>53000</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="3">
-        <v>3</v>
-      </c>
-      <c r="K16" s="6">
-        <v>10342993</v>
-      </c>
-      <c r="L16" s="6">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="3">
-        <v>41500</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="6">
-        <v>9007610</v>
-      </c>
-      <c r="L17" s="6">
-        <v>245498</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="3">
-        <v>41500</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="6">
-        <v>4457072</v>
-      </c>
-      <c r="L18" s="6">
-        <v>121393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F20" s="3">
         <v>197000</v>
@@ -1437,33 +1474,33 @@
         <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="6">
-        <v>12831598</v>
-      </c>
-      <c r="L20" s="6">
-        <v>356267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K20" s="5">
+        <v>7895141</v>
+      </c>
+      <c r="L20" s="5">
+        <v>229781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F21" s="3">
         <v>197000</v>
@@ -1475,30 +1512,30 @@
         <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
       </c>
-      <c r="K21" s="6">
-        <v>7895141</v>
-      </c>
-      <c r="L21" s="6">
-        <v>229781</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K21" s="5">
+        <v>12831598</v>
+      </c>
+      <c r="L21" s="5">
+        <v>356267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -1513,24 +1550,24 @@
         <v>16</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J22" s="3">
         <v>1</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>9576370</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>265844</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>75</v>
@@ -1542,7 +1579,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="3">
-        <v>147000</v>
+        <v>105000</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>15</v>
@@ -1554,33 +1591,33 @@
         <v>77</v>
       </c>
       <c r="J23" s="3">
-        <v>2</v>
-      </c>
-      <c r="K23" s="6">
-        <v>39113645</v>
-      </c>
-      <c r="L23" s="6">
-        <v>1607170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>6841979</v>
+      </c>
+      <c r="L23" s="5">
+        <v>189888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="F24" s="3">
-        <v>105000</v>
+        <v>66000</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>15</v>
@@ -1589,36 +1626,36 @@
         <v>16</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
       </c>
-      <c r="K24" s="6">
-        <v>6841979</v>
-      </c>
-      <c r="L24" s="6">
-        <v>189888</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="5">
+        <v>4700762</v>
+      </c>
+      <c r="L24" s="5">
+        <v>119358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="3">
-        <v>105000</v>
+        <v>53000</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>15</v>
@@ -1627,36 +1664,36 @@
         <v>16</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J25" s="3">
-        <v>2</v>
-      </c>
-      <c r="K25" s="6">
-        <v>28252672</v>
-      </c>
-      <c r="L25" s="6">
-        <v>1053426</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
+        <v>3456542</v>
+      </c>
+      <c r="L25" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F26" s="3">
-        <v>105000</v>
+        <v>41500</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>15</v>
@@ -1665,74 +1702,46 @@
         <v>16</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J26" s="3">
-        <v>3</v>
-      </c>
-      <c r="K26" s="6">
-        <v>72884193</v>
-      </c>
-      <c r="L26" s="6">
-        <v>3808922</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="3">
-        <v>82500</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2</v>
-      </c>
-      <c r="K27" s="6">
-        <v>10812631</v>
-      </c>
-      <c r="L27" s="6">
-        <v>450838</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>940008</v>
+      </c>
+      <c r="L26" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="K27" s="7">
+        <f>SUM(K17:K26)</f>
+        <v>124421348</v>
+      </c>
+      <c r="L27" s="7">
+        <f>SUM(L17:L26)</f>
+        <v>4472572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="F28" s="3">
-        <v>66000</v>
+        <v>41500</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>15</v>
@@ -1741,143 +1750,46 @@
         <v>16</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J28" s="3">
         <v>1</v>
       </c>
-      <c r="K28" s="6">
-        <v>4700762</v>
-      </c>
-      <c r="L28" s="6">
-        <v>119358</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>26</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="3">
-        <v>53000</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="K28" s="5">
+        <v>2757873</v>
+      </c>
+      <c r="L28" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="K29" s="7">
+        <f>SUM(K28)</f>
+        <v>2757873</v>
+      </c>
+      <c r="L29" s="7">
+        <f>SUM(L28)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75">
+      <c r="J31" t="s">
         <v>96</v>
       </c>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="6">
-        <v>3456542</v>
-      </c>
-      <c r="L29" s="6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="3">
-        <v>41500</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
-      <c r="K30" s="6">
-        <v>940008</v>
-      </c>
-      <c r="L30" s="6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="3">
-        <v>41500</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1</v>
-      </c>
-      <c r="K32" s="6">
-        <v>2757873</v>
-      </c>
-      <c r="L32" s="6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K33" s="4">
-        <f>SUM(K3:K32)</f>
-        <v>412510829</v>
-      </c>
-      <c r="L33" s="4">
-        <f>SUM(L3:L32)</f>
-        <v>15598469</v>
+      <c r="K31" s="8">
+        <f>+K16+K27+K29</f>
+        <v>316397777</v>
+      </c>
+      <c r="L31" s="8">
+        <f>+L16+L27+L29</f>
+        <v>11156360</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B17:L26">
+    <sortCondition descending="1" ref="J17:J26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/btr.amr.112015.xlsx
+++ b/files/btr.amr.112015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="102">
   <si>
     <t>UNITUP</t>
   </si>
@@ -305,6 +305,21 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>merah lunas</t>
+  </si>
+  <si>
+    <t>sisa</t>
+  </si>
+  <si>
+    <t>sisa bk</t>
+  </si>
+  <si>
+    <t>lunas</t>
+  </si>
+  <si>
+    <t>bk lunas</t>
   </si>
 </sst>
 </file>
@@ -314,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +369,33 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -417,7 +459,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -437,6 +479,29 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -733,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65.140625" defaultRowHeight="15"/>
@@ -752,9 +817,13 @@
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
@@ -792,52 +861,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:16" s="15" customFormat="1">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="13">
         <v>53000</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="13">
         <v>3</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="14">
         <v>10342993</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="14">
         <v>600000</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:16">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -868,14 +937,14 @@
         <v>2986568</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:16">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -906,14 +975,14 @@
         <v>356267</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:16">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -944,14 +1013,14 @@
         <v>335288</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -982,14 +1051,14 @@
         <v>438553</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1020,52 +1089,52 @@
         <v>189888</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2">
+    <row r="8" spans="1:16" s="15" customFormat="1">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="13">
         <v>105000</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="G8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="J8" s="13">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14">
         <v>25402807</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="14">
         <v>692640</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:16">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1096,52 +1165,52 @@
         <v>189888</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2">
+    <row r="10" spans="1:16" s="15" customFormat="1">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="13">
         <v>82500</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="G10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="J10" s="13">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14">
         <v>5476592</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="14">
         <v>149198</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:16">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1172,14 +1241,14 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:16">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1210,14 +1279,14 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:16">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1248,14 +1317,14 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:16">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1286,14 +1355,14 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:16">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1323,8 +1392,20 @@
       <c r="L15" s="5">
         <v>245498</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="K16" s="7">
         <f>SUM(K2:K15)</f>
         <v>189218556</v>
@@ -1333,15 +1414,31 @@
         <f>SUM(L2:L15)</f>
         <v>6583788</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="17">
+        <f>+K2+K8+K10</f>
+        <v>41222392</v>
+      </c>
+      <c r="N16" s="17">
+        <f>+L2+L8+L10</f>
+        <v>1441838</v>
+      </c>
+      <c r="O16" s="18">
+        <f>+K16-M16</f>
+        <v>147996164</v>
+      </c>
+      <c r="P16" s="18">
+        <f>+L16-N16</f>
+        <v>5141950</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1372,14 +1469,14 @@
         <v>1607170</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:16">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1410,14 +1507,14 @@
         <v>1053426</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:16">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="11" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1448,14 +1545,14 @@
         <v>450838</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:16">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1486,14 +1583,14 @@
         <v>229781</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:16">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1524,52 +1621,52 @@
         <v>356267</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2">
+    <row r="22" spans="1:16" s="15" customFormat="1">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="13">
         <v>147000</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="G22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5">
+      <c r="J22" s="13">
+        <v>1</v>
+      </c>
+      <c r="K22" s="14">
         <v>9576370</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="14">
         <v>265844</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:16">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1600,14 +1697,14 @@
         <v>189888</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:16">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1638,14 +1735,14 @@
         <v>119358</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:16">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1676,14 +1773,14 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:16">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1713,8 +1810,14 @@
       <c r="L26" s="5">
         <v>100000</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="O26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="K27" s="7">
         <f>SUM(K17:K26)</f>
         <v>124421348</v>
@@ -1723,15 +1826,31 @@
         <f>SUM(L17:L26)</f>
         <v>4472572</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="17">
+        <f>+K22</f>
+        <v>9576370</v>
+      </c>
+      <c r="N27" s="17">
+        <f>+L22</f>
+        <v>265844</v>
+      </c>
+      <c r="O27" s="18">
+        <f>+K27-K22</f>
+        <v>114844978</v>
+      </c>
+      <c r="P27" s="18">
+        <f>+L27-L22</f>
+        <v>4206728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1762,7 +1881,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:16">
       <c r="K29" s="7">
         <f>SUM(K28)</f>
         <v>2757873</v>
@@ -1772,7 +1891,10 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75">
+    <row r="31" spans="1:16" ht="15.75">
+      <c r="B31" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="J31" t="s">
         <v>96</v>
       </c>
@@ -1783,6 +1905,29 @@
       <c r="L31" s="8">
         <f>+L16+L27+L29</f>
         <v>11156360</v>
+      </c>
+    </row>
+    <row r="33" spans="10:12">
+      <c r="K33" s="6">
+        <f>+K2+K8+K10+K22</f>
+        <v>50798762</v>
+      </c>
+      <c r="L33" s="6">
+        <f>+L2+L8+L10+L22</f>
+        <v>1707682</v>
+      </c>
+    </row>
+    <row r="34" spans="10:12">
+      <c r="J34" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="7">
+        <f>+K31-K33</f>
+        <v>265599015</v>
+      </c>
+      <c r="L34" s="7">
+        <f>+L31-L33</f>
+        <v>9448678</v>
       </c>
     </row>
   </sheetData>
